--- a/stock_historical_data/1d/SGFIN.BO.xlsx
+++ b/stock_historical_data/1d/SGFIN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,264 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B12" t="n">
+        <v>395</v>
+      </c>
+      <c r="C12" t="n">
+        <v>402.25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>375</v>
+      </c>
+      <c r="E12" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>128174</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B13" t="n">
+        <v>384.9500122070312</v>
+      </c>
+      <c r="C13" t="n">
+        <v>397.7000122070312</v>
+      </c>
+      <c r="D13" t="n">
+        <v>374</v>
+      </c>
+      <c r="E13" t="n">
+        <v>387.2999877929688</v>
+      </c>
+      <c r="F13" t="n">
+        <v>82053</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B14" t="n">
+        <v>390</v>
+      </c>
+      <c r="C14" t="n">
+        <v>394.8500061035156</v>
+      </c>
+      <c r="D14" t="n">
+        <v>369</v>
+      </c>
+      <c r="E14" t="n">
+        <v>372.3999938964844</v>
+      </c>
+      <c r="F14" t="n">
+        <v>91735</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B15" t="n">
+        <v>376</v>
+      </c>
+      <c r="C15" t="n">
+        <v>384.7999877929688</v>
+      </c>
+      <c r="D15" t="n">
+        <v>371.0499877929688</v>
+      </c>
+      <c r="E15" t="n">
+        <v>375.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>90228</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B16" t="n">
+        <v>375.3999938964844</v>
+      </c>
+      <c r="C16" t="n">
+        <v>402</v>
+      </c>
+      <c r="D16" t="n">
+        <v>374</v>
+      </c>
+      <c r="E16" t="n">
+        <v>393.7000122070312</v>
+      </c>
+      <c r="F16" t="n">
+        <v>226834</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SGFIN.BO.xlsx
+++ b/stock_historical_data/1d/SGFIN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1154,7 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1205,7 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1256,7 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1307,7 +1315,264 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B17" t="n">
+        <v>405.0499877929688</v>
+      </c>
+      <c r="C17" t="n">
+        <v>424.2000122070312</v>
+      </c>
+      <c r="D17" t="n">
+        <v>387.2000122070312</v>
+      </c>
+      <c r="E17" t="n">
+        <v>389.8999938964844</v>
+      </c>
+      <c r="F17" t="n">
+        <v>219114</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B18" t="n">
+        <v>392</v>
+      </c>
+      <c r="C18" t="n">
+        <v>392</v>
+      </c>
+      <c r="D18" t="n">
+        <v>378</v>
+      </c>
+      <c r="E18" t="n">
+        <v>382</v>
+      </c>
+      <c r="F18" t="n">
+        <v>113268</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B19" t="n">
+        <v>380.6000061035156</v>
+      </c>
+      <c r="C19" t="n">
+        <v>386.7000122070312</v>
+      </c>
+      <c r="D19" t="n">
+        <v>361.25</v>
+      </c>
+      <c r="E19" t="n">
+        <v>364.5499877929688</v>
+      </c>
+      <c r="F19" t="n">
+        <v>93654</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>22</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B20" t="n">
+        <v>367.7999877929688</v>
+      </c>
+      <c r="C20" t="n">
+        <v>381.9500122070312</v>
+      </c>
+      <c r="D20" t="n">
+        <v>360.2000122070312</v>
+      </c>
+      <c r="E20" t="n">
+        <v>372.0499877929688</v>
+      </c>
+      <c r="F20" t="n">
+        <v>80737</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B21" t="n">
+        <v>378</v>
+      </c>
+      <c r="C21" t="n">
+        <v>378</v>
+      </c>
+      <c r="D21" t="n">
+        <v>365.25</v>
+      </c>
+      <c r="E21" t="n">
+        <v>369.5499877929688</v>
+      </c>
+      <c r="F21" t="n">
+        <v>47260</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>24</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SGFIN.BO.xlsx
+++ b/stock_historical_data/1d/SGFIN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1368,7 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1419,7 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1470,7 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1521,7 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1572,7 +1580,264 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B22" t="n">
+        <v>365.25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>368.8999938964844</v>
+      </c>
+      <c r="D22" t="n">
+        <v>337</v>
+      </c>
+      <c r="E22" t="n">
+        <v>347.4500122070312</v>
+      </c>
+      <c r="F22" t="n">
+        <v>139318</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B23" t="n">
+        <v>347</v>
+      </c>
+      <c r="C23" t="n">
+        <v>355.9500122070312</v>
+      </c>
+      <c r="D23" t="n">
+        <v>328.1499938964844</v>
+      </c>
+      <c r="E23" t="n">
+        <v>329.4500122070312</v>
+      </c>
+      <c r="F23" t="n">
+        <v>134111</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>28</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B24" t="n">
+        <v>332.3999938964844</v>
+      </c>
+      <c r="C24" t="n">
+        <v>352.3500061035156</v>
+      </c>
+      <c r="D24" t="n">
+        <v>332.3999938964844</v>
+      </c>
+      <c r="E24" t="n">
+        <v>343.1499938964844</v>
+      </c>
+      <c r="F24" t="n">
+        <v>79262</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B25" t="n">
+        <v>348.8999938964844</v>
+      </c>
+      <c r="C25" t="n">
+        <v>354.8999938964844</v>
+      </c>
+      <c r="D25" t="n">
+        <v>340</v>
+      </c>
+      <c r="E25" t="n">
+        <v>346</v>
+      </c>
+      <c r="F25" t="n">
+        <v>53059</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>30</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B26" t="n">
+        <v>349.9500122070312</v>
+      </c>
+      <c r="C26" t="n">
+        <v>354</v>
+      </c>
+      <c r="D26" t="n">
+        <v>343.3999938964844</v>
+      </c>
+      <c r="E26" t="n">
+        <v>348.3500061035156</v>
+      </c>
+      <c r="F26" t="n">
+        <v>40988</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>31</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SGFIN.BO.xlsx
+++ b/stock_historical_data/1d/SGFIN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q911"/>
+  <dimension ref="A1:Q916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41664,6 +41664,231 @@
       <c r="P911" t="inlineStr"/>
       <c r="Q911" t="inlineStr"/>
     </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B912" t="n">
+        <v>386</v>
+      </c>
+      <c r="C912" t="n">
+        <v>386</v>
+      </c>
+      <c r="D912" t="n">
+        <v>368</v>
+      </c>
+      <c r="E912" t="n">
+        <v>368.8999938964844</v>
+      </c>
+      <c r="F912" t="n">
+        <v>43505</v>
+      </c>
+      <c r="G912" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H912" t="n">
+        <v>2</v>
+      </c>
+      <c r="I912" t="n">
+        <v>10</v>
+      </c>
+      <c r="J912" t="n">
+        <v>0</v>
+      </c>
+      <c r="K912" t="n">
+        <v>0</v>
+      </c>
+      <c r="L912" t="n">
+        <v>0</v>
+      </c>
+      <c r="M912" t="n">
+        <v>7</v>
+      </c>
+      <c r="N912" t="inlineStr"/>
+      <c r="O912" t="inlineStr"/>
+      <c r="P912" t="inlineStr"/>
+      <c r="Q912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B913" t="n">
+        <v>369.1499938964844</v>
+      </c>
+      <c r="C913" t="n">
+        <v>371.5</v>
+      </c>
+      <c r="D913" t="n">
+        <v>355.6499938964844</v>
+      </c>
+      <c r="E913" t="n">
+        <v>357.1000061035156</v>
+      </c>
+      <c r="F913" t="n">
+        <v>28426</v>
+      </c>
+      <c r="G913" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H913" t="n">
+        <v>2</v>
+      </c>
+      <c r="I913" t="n">
+        <v>11</v>
+      </c>
+      <c r="J913" t="n">
+        <v>0</v>
+      </c>
+      <c r="K913" t="n">
+        <v>0</v>
+      </c>
+      <c r="L913" t="n">
+        <v>0</v>
+      </c>
+      <c r="M913" t="n">
+        <v>7</v>
+      </c>
+      <c r="N913" t="inlineStr"/>
+      <c r="O913" t="inlineStr"/>
+      <c r="P913" t="inlineStr"/>
+      <c r="Q913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B914" t="n">
+        <v>355</v>
+      </c>
+      <c r="C914" t="n">
+        <v>374.2000122070312</v>
+      </c>
+      <c r="D914" t="n">
+        <v>341.1000061035156</v>
+      </c>
+      <c r="E914" t="n">
+        <v>363.2000122070312</v>
+      </c>
+      <c r="F914" t="n">
+        <v>63405</v>
+      </c>
+      <c r="G914" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H914" t="n">
+        <v>2</v>
+      </c>
+      <c r="I914" t="n">
+        <v>12</v>
+      </c>
+      <c r="J914" t="n">
+        <v>0</v>
+      </c>
+      <c r="K914" t="n">
+        <v>0</v>
+      </c>
+      <c r="L914" t="n">
+        <v>0</v>
+      </c>
+      <c r="M914" t="n">
+        <v>7</v>
+      </c>
+      <c r="N914" t="inlineStr"/>
+      <c r="O914" t="inlineStr"/>
+      <c r="P914" t="inlineStr"/>
+      <c r="Q914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B915" t="n">
+        <v>367.9500122070312</v>
+      </c>
+      <c r="C915" t="n">
+        <v>372.8500061035156</v>
+      </c>
+      <c r="D915" t="n">
+        <v>351.2000122070312</v>
+      </c>
+      <c r="E915" t="n">
+        <v>355.0499877929688</v>
+      </c>
+      <c r="F915" t="n">
+        <v>46739</v>
+      </c>
+      <c r="G915" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H915" t="n">
+        <v>2</v>
+      </c>
+      <c r="I915" t="n">
+        <v>13</v>
+      </c>
+      <c r="J915" t="n">
+        <v>0</v>
+      </c>
+      <c r="K915" t="n">
+        <v>0</v>
+      </c>
+      <c r="L915" t="n">
+        <v>0</v>
+      </c>
+      <c r="M915" t="n">
+        <v>7</v>
+      </c>
+      <c r="N915" t="inlineStr"/>
+      <c r="O915" t="inlineStr"/>
+      <c r="P915" t="inlineStr"/>
+      <c r="Q915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B916" t="n">
+        <v>359.8999938964844</v>
+      </c>
+      <c r="C916" t="n">
+        <v>370</v>
+      </c>
+      <c r="D916" t="n">
+        <v>337</v>
+      </c>
+      <c r="E916" t="n">
+        <v>344.8999938964844</v>
+      </c>
+      <c r="F916" t="n">
+        <v>55433</v>
+      </c>
+      <c r="G916" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H916" t="n">
+        <v>2</v>
+      </c>
+      <c r="I916" t="n">
+        <v>14</v>
+      </c>
+      <c r="J916" t="n">
+        <v>0</v>
+      </c>
+      <c r="K916" t="n">
+        <v>0</v>
+      </c>
+      <c r="L916" t="n">
+        <v>0</v>
+      </c>
+      <c r="M916" t="n">
+        <v>7</v>
+      </c>
+      <c r="N916" t="inlineStr"/>
+      <c r="O916" t="inlineStr"/>
+      <c r="P916" t="inlineStr"/>
+      <c r="Q916" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/SGFIN.BO.xlsx
+++ b/stock_historical_data/1d/SGFIN.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q916"/>
+  <dimension ref="A1:Q925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41889,6 +41889,411 @@
       <c r="P916" t="inlineStr"/>
       <c r="Q916" t="inlineStr"/>
     </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B917" t="n">
+        <v>340</v>
+      </c>
+      <c r="C917" t="n">
+        <v>344.9500122070312</v>
+      </c>
+      <c r="D917" t="n">
+        <v>327</v>
+      </c>
+      <c r="E917" t="n">
+        <v>337.3999938964844</v>
+      </c>
+      <c r="F917" t="n">
+        <v>58041</v>
+      </c>
+      <c r="G917" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H917" t="n">
+        <v>2</v>
+      </c>
+      <c r="I917" t="n">
+        <v>17</v>
+      </c>
+      <c r="J917" t="n">
+        <v>0</v>
+      </c>
+      <c r="K917" t="n">
+        <v>0</v>
+      </c>
+      <c r="L917" t="n">
+        <v>0</v>
+      </c>
+      <c r="M917" t="n">
+        <v>8</v>
+      </c>
+      <c r="N917" t="inlineStr"/>
+      <c r="O917" t="inlineStr"/>
+      <c r="P917" t="inlineStr"/>
+      <c r="Q917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B918" t="n">
+        <v>333.1499938964844</v>
+      </c>
+      <c r="C918" t="n">
+        <v>347.8999938964844</v>
+      </c>
+      <c r="D918" t="n">
+        <v>327</v>
+      </c>
+      <c r="E918" t="n">
+        <v>329.7999877929688</v>
+      </c>
+      <c r="F918" t="n">
+        <v>25009</v>
+      </c>
+      <c r="G918" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H918" t="n">
+        <v>2</v>
+      </c>
+      <c r="I918" t="n">
+        <v>18</v>
+      </c>
+      <c r="J918" t="n">
+        <v>0</v>
+      </c>
+      <c r="K918" t="n">
+        <v>0</v>
+      </c>
+      <c r="L918" t="n">
+        <v>0</v>
+      </c>
+      <c r="M918" t="n">
+        <v>8</v>
+      </c>
+      <c r="N918" t="inlineStr"/>
+      <c r="O918" t="inlineStr"/>
+      <c r="P918" t="inlineStr"/>
+      <c r="Q918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B919" t="n">
+        <v>334</v>
+      </c>
+      <c r="C919" t="n">
+        <v>354.8999938964844</v>
+      </c>
+      <c r="D919" t="n">
+        <v>332</v>
+      </c>
+      <c r="E919" t="n">
+        <v>345.7000122070312</v>
+      </c>
+      <c r="F919" t="n">
+        <v>482425</v>
+      </c>
+      <c r="G919" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H919" t="n">
+        <v>2</v>
+      </c>
+      <c r="I919" t="n">
+        <v>19</v>
+      </c>
+      <c r="J919" t="n">
+        <v>0</v>
+      </c>
+      <c r="K919" t="n">
+        <v>0</v>
+      </c>
+      <c r="L919" t="n">
+        <v>0</v>
+      </c>
+      <c r="M919" t="n">
+        <v>8</v>
+      </c>
+      <c r="N919" t="inlineStr"/>
+      <c r="O919" t="inlineStr"/>
+      <c r="P919" t="inlineStr"/>
+      <c r="Q919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B920" t="n">
+        <v>345.7000122070312</v>
+      </c>
+      <c r="C920" t="n">
+        <v>345.7000122070312</v>
+      </c>
+      <c r="D920" t="n">
+        <v>328</v>
+      </c>
+      <c r="E920" t="n">
+        <v>340.75</v>
+      </c>
+      <c r="F920" t="n">
+        <v>54704</v>
+      </c>
+      <c r="G920" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H920" t="n">
+        <v>2</v>
+      </c>
+      <c r="I920" t="n">
+        <v>20</v>
+      </c>
+      <c r="J920" t="n">
+        <v>0</v>
+      </c>
+      <c r="K920" t="n">
+        <v>0</v>
+      </c>
+      <c r="L920" t="n">
+        <v>0</v>
+      </c>
+      <c r="M920" t="n">
+        <v>8</v>
+      </c>
+      <c r="N920" t="inlineStr"/>
+      <c r="O920" t="inlineStr"/>
+      <c r="P920" t="inlineStr"/>
+      <c r="Q920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B921" t="n">
+        <v>340</v>
+      </c>
+      <c r="C921" t="n">
+        <v>347.9500122070312</v>
+      </c>
+      <c r="D921" t="n">
+        <v>330.1000061035156</v>
+      </c>
+      <c r="E921" t="n">
+        <v>342.8500061035156</v>
+      </c>
+      <c r="F921" t="n">
+        <v>34825</v>
+      </c>
+      <c r="G921" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H921" t="n">
+        <v>2</v>
+      </c>
+      <c r="I921" t="n">
+        <v>21</v>
+      </c>
+      <c r="J921" t="n">
+        <v>0</v>
+      </c>
+      <c r="K921" t="n">
+        <v>0</v>
+      </c>
+      <c r="L921" t="n">
+        <v>0</v>
+      </c>
+      <c r="M921" t="n">
+        <v>8</v>
+      </c>
+      <c r="N921" t="inlineStr"/>
+      <c r="O921" t="inlineStr"/>
+      <c r="P921" t="inlineStr"/>
+      <c r="Q921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B922" t="n">
+        <v>342</v>
+      </c>
+      <c r="C922" t="n">
+        <v>345</v>
+      </c>
+      <c r="D922" t="n">
+        <v>326.1499938964844</v>
+      </c>
+      <c r="E922" t="n">
+        <v>330.2000122070312</v>
+      </c>
+      <c r="F922" t="n">
+        <v>72941</v>
+      </c>
+      <c r="G922" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H922" t="n">
+        <v>2</v>
+      </c>
+      <c r="I922" t="n">
+        <v>24</v>
+      </c>
+      <c r="J922" t="n">
+        <v>0</v>
+      </c>
+      <c r="K922" t="n">
+        <v>0</v>
+      </c>
+      <c r="L922" t="n">
+        <v>0</v>
+      </c>
+      <c r="M922" t="n">
+        <v>9</v>
+      </c>
+      <c r="N922" t="inlineStr"/>
+      <c r="O922" t="inlineStr"/>
+      <c r="P922" t="inlineStr"/>
+      <c r="Q922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B923" t="n">
+        <v>328.3999938964844</v>
+      </c>
+      <c r="C923" t="n">
+        <v>339.8500061035156</v>
+      </c>
+      <c r="D923" t="n">
+        <v>328</v>
+      </c>
+      <c r="E923" t="n">
+        <v>333.2999877929688</v>
+      </c>
+      <c r="F923" t="n">
+        <v>39689</v>
+      </c>
+      <c r="G923" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H923" t="n">
+        <v>2</v>
+      </c>
+      <c r="I923" t="n">
+        <v>25</v>
+      </c>
+      <c r="J923" t="n">
+        <v>0</v>
+      </c>
+      <c r="K923" t="n">
+        <v>0</v>
+      </c>
+      <c r="L923" t="n">
+        <v>0</v>
+      </c>
+      <c r="M923" t="n">
+        <v>9</v>
+      </c>
+      <c r="N923" t="inlineStr"/>
+      <c r="O923" t="inlineStr"/>
+      <c r="P923" t="inlineStr"/>
+      <c r="Q923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B924" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="C924" t="n">
+        <v>338.7000122070312</v>
+      </c>
+      <c r="D924" t="n">
+        <v>328.3500061035156</v>
+      </c>
+      <c r="E924" t="n">
+        <v>336.0499877929688</v>
+      </c>
+      <c r="F924" t="n">
+        <v>21840</v>
+      </c>
+      <c r="G924" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H924" t="n">
+        <v>2</v>
+      </c>
+      <c r="I924" t="n">
+        <v>27</v>
+      </c>
+      <c r="J924" t="n">
+        <v>0</v>
+      </c>
+      <c r="K924" t="n">
+        <v>0</v>
+      </c>
+      <c r="L924" t="n">
+        <v>0</v>
+      </c>
+      <c r="M924" t="n">
+        <v>9</v>
+      </c>
+      <c r="N924" t="inlineStr"/>
+      <c r="O924" t="inlineStr"/>
+      <c r="P924" t="inlineStr"/>
+      <c r="Q924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B925" t="n">
+        <v>334.9500122070312</v>
+      </c>
+      <c r="C925" t="n">
+        <v>352.8500061035156</v>
+      </c>
+      <c r="D925" t="n">
+        <v>327.25</v>
+      </c>
+      <c r="E925" t="n">
+        <v>343.8999938964844</v>
+      </c>
+      <c r="F925" t="n">
+        <v>65863</v>
+      </c>
+      <c r="G925" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H925" t="n">
+        <v>2</v>
+      </c>
+      <c r="I925" t="n">
+        <v>28</v>
+      </c>
+      <c r="J925" t="n">
+        <v>0</v>
+      </c>
+      <c r="K925" t="n">
+        <v>0</v>
+      </c>
+      <c r="L925" t="n">
+        <v>0</v>
+      </c>
+      <c r="M925" t="n">
+        <v>9</v>
+      </c>
+      <c r="N925" t="inlineStr"/>
+      <c r="O925" t="inlineStr"/>
+      <c r="P925" t="inlineStr"/>
+      <c r="Q925" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/SGFIN.BO.xlsx
+++ b/stock_historical_data/1d/SGFIN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q925"/>
+  <dimension ref="A1:Q934"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42294,6 +42294,411 @@
       <c r="P925" t="inlineStr"/>
       <c r="Q925" t="inlineStr"/>
     </row>
+    <row r="926">
+      <c r="A926" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B926" t="n">
+        <v>350</v>
+      </c>
+      <c r="C926" t="n">
+        <v>353.7000122070312</v>
+      </c>
+      <c r="D926" t="n">
+        <v>316.1499938964844</v>
+      </c>
+      <c r="E926" t="n">
+        <v>344.5499877929688</v>
+      </c>
+      <c r="F926" t="n">
+        <v>115675</v>
+      </c>
+      <c r="G926" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H926" t="n">
+        <v>3</v>
+      </c>
+      <c r="I926" t="n">
+        <v>3</v>
+      </c>
+      <c r="J926" t="n">
+        <v>0</v>
+      </c>
+      <c r="K926" t="n">
+        <v>0</v>
+      </c>
+      <c r="L926" t="n">
+        <v>0</v>
+      </c>
+      <c r="M926" t="n">
+        <v>10</v>
+      </c>
+      <c r="N926" t="inlineStr"/>
+      <c r="O926" t="inlineStr"/>
+      <c r="P926" t="inlineStr"/>
+      <c r="Q926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B927" t="n">
+        <v>349.5499877929688</v>
+      </c>
+      <c r="C927" t="n">
+        <v>365.9500122070312</v>
+      </c>
+      <c r="D927" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="E927" t="n">
+        <v>361.1000061035156</v>
+      </c>
+      <c r="F927" t="n">
+        <v>91709</v>
+      </c>
+      <c r="G927" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H927" t="n">
+        <v>3</v>
+      </c>
+      <c r="I927" t="n">
+        <v>4</v>
+      </c>
+      <c r="J927" t="n">
+        <v>0</v>
+      </c>
+      <c r="K927" t="n">
+        <v>0</v>
+      </c>
+      <c r="L927" t="n">
+        <v>0</v>
+      </c>
+      <c r="M927" t="n">
+        <v>10</v>
+      </c>
+      <c r="N927" t="inlineStr"/>
+      <c r="O927" t="inlineStr"/>
+      <c r="P927" t="inlineStr"/>
+      <c r="Q927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B928" t="n">
+        <v>362.9500122070312</v>
+      </c>
+      <c r="C928" t="n">
+        <v>384.8999938964844</v>
+      </c>
+      <c r="D928" t="n">
+        <v>354.4500122070312</v>
+      </c>
+      <c r="E928" t="n">
+        <v>368.0499877929688</v>
+      </c>
+      <c r="F928" t="n">
+        <v>120395</v>
+      </c>
+      <c r="G928" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H928" t="n">
+        <v>3</v>
+      </c>
+      <c r="I928" t="n">
+        <v>5</v>
+      </c>
+      <c r="J928" t="n">
+        <v>0</v>
+      </c>
+      <c r="K928" t="n">
+        <v>0</v>
+      </c>
+      <c r="L928" t="n">
+        <v>0</v>
+      </c>
+      <c r="M928" t="n">
+        <v>10</v>
+      </c>
+      <c r="N928" t="inlineStr"/>
+      <c r="O928" t="inlineStr"/>
+      <c r="P928" t="inlineStr"/>
+      <c r="Q928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B929" t="n">
+        <v>368.0499877929688</v>
+      </c>
+      <c r="C929" t="n">
+        <v>383.8999938964844</v>
+      </c>
+      <c r="D929" t="n">
+        <v>364</v>
+      </c>
+      <c r="E929" t="n">
+        <v>366.7000122070312</v>
+      </c>
+      <c r="F929" t="n">
+        <v>156708</v>
+      </c>
+      <c r="G929" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H929" t="n">
+        <v>3</v>
+      </c>
+      <c r="I929" t="n">
+        <v>6</v>
+      </c>
+      <c r="J929" t="n">
+        <v>0</v>
+      </c>
+      <c r="K929" t="n">
+        <v>0</v>
+      </c>
+      <c r="L929" t="n">
+        <v>0</v>
+      </c>
+      <c r="M929" t="n">
+        <v>10</v>
+      </c>
+      <c r="N929" t="inlineStr"/>
+      <c r="O929" t="inlineStr"/>
+      <c r="P929" t="inlineStr"/>
+      <c r="Q929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B930" t="n">
+        <v>373.9500122070312</v>
+      </c>
+      <c r="C930" t="n">
+        <v>373.9500122070312</v>
+      </c>
+      <c r="D930" t="n">
+        <v>335.7999877929688</v>
+      </c>
+      <c r="E930" t="n">
+        <v>345.4500122070312</v>
+      </c>
+      <c r="F930" t="n">
+        <v>361521</v>
+      </c>
+      <c r="G930" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H930" t="n">
+        <v>3</v>
+      </c>
+      <c r="I930" t="n">
+        <v>7</v>
+      </c>
+      <c r="J930" t="n">
+        <v>0</v>
+      </c>
+      <c r="K930" t="n">
+        <v>0</v>
+      </c>
+      <c r="L930" t="n">
+        <v>0</v>
+      </c>
+      <c r="M930" t="n">
+        <v>10</v>
+      </c>
+      <c r="N930" t="inlineStr"/>
+      <c r="O930" t="inlineStr"/>
+      <c r="P930" t="inlineStr"/>
+      <c r="Q930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B931" t="n">
+        <v>345.5</v>
+      </c>
+      <c r="C931" t="n">
+        <v>345.5</v>
+      </c>
+      <c r="D931" t="n">
+        <v>330.7000122070312</v>
+      </c>
+      <c r="E931" t="n">
+        <v>332.9500122070312</v>
+      </c>
+      <c r="F931" t="n">
+        <v>215881</v>
+      </c>
+      <c r="G931" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H931" t="n">
+        <v>3</v>
+      </c>
+      <c r="I931" t="n">
+        <v>10</v>
+      </c>
+      <c r="J931" t="n">
+        <v>0</v>
+      </c>
+      <c r="K931" t="n">
+        <v>0</v>
+      </c>
+      <c r="L931" t="n">
+        <v>0</v>
+      </c>
+      <c r="M931" t="n">
+        <v>11</v>
+      </c>
+      <c r="N931" t="inlineStr"/>
+      <c r="O931" t="inlineStr"/>
+      <c r="P931" t="inlineStr"/>
+      <c r="Q931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B932" t="n">
+        <v>330.1000061035156</v>
+      </c>
+      <c r="C932" t="n">
+        <v>336</v>
+      </c>
+      <c r="D932" t="n">
+        <v>324.2999877929688</v>
+      </c>
+      <c r="E932" t="n">
+        <v>327.3500061035156</v>
+      </c>
+      <c r="F932" t="n">
+        <v>113049</v>
+      </c>
+      <c r="G932" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H932" t="n">
+        <v>3</v>
+      </c>
+      <c r="I932" t="n">
+        <v>11</v>
+      </c>
+      <c r="J932" t="n">
+        <v>0</v>
+      </c>
+      <c r="K932" t="n">
+        <v>0</v>
+      </c>
+      <c r="L932" t="n">
+        <v>0</v>
+      </c>
+      <c r="M932" t="n">
+        <v>11</v>
+      </c>
+      <c r="N932" t="inlineStr"/>
+      <c r="O932" t="inlineStr"/>
+      <c r="P932" t="inlineStr"/>
+      <c r="Q932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B933" t="n">
+        <v>332</v>
+      </c>
+      <c r="C933" t="n">
+        <v>335</v>
+      </c>
+      <c r="D933" t="n">
+        <v>317</v>
+      </c>
+      <c r="E933" t="n">
+        <v>320.75</v>
+      </c>
+      <c r="F933" t="n">
+        <v>335304</v>
+      </c>
+      <c r="G933" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H933" t="n">
+        <v>3</v>
+      </c>
+      <c r="I933" t="n">
+        <v>12</v>
+      </c>
+      <c r="J933" t="n">
+        <v>0</v>
+      </c>
+      <c r="K933" t="n">
+        <v>0</v>
+      </c>
+      <c r="L933" t="n">
+        <v>0</v>
+      </c>
+      <c r="M933" t="n">
+        <v>11</v>
+      </c>
+      <c r="N933" t="inlineStr"/>
+      <c r="O933" t="inlineStr"/>
+      <c r="P933" t="inlineStr"/>
+      <c r="Q933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B934" t="n">
+        <v>324.8999938964844</v>
+      </c>
+      <c r="C934" t="n">
+        <v>331</v>
+      </c>
+      <c r="D934" t="n">
+        <v>324.25</v>
+      </c>
+      <c r="E934" t="n">
+        <v>325.0499877929688</v>
+      </c>
+      <c r="F934" t="n">
+        <v>96185</v>
+      </c>
+      <c r="G934" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H934" t="n">
+        <v>3</v>
+      </c>
+      <c r="I934" t="n">
+        <v>13</v>
+      </c>
+      <c r="J934" t="n">
+        <v>0</v>
+      </c>
+      <c r="K934" t="n">
+        <v>0</v>
+      </c>
+      <c r="L934" t="n">
+        <v>0</v>
+      </c>
+      <c r="M934" t="n">
+        <v>11</v>
+      </c>
+      <c r="N934" t="inlineStr"/>
+      <c r="O934" t="inlineStr"/>
+      <c r="P934" t="inlineStr"/>
+      <c r="Q934" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/SGFIN.BO.xlsx
+++ b/stock_historical_data/1d/SGFIN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q934"/>
+  <dimension ref="A1:Q944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42699,6 +42699,456 @@
       <c r="P934" t="inlineStr"/>
       <c r="Q934" t="inlineStr"/>
     </row>
+    <row r="935">
+      <c r="A935" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B935" t="n">
+        <v>325.0499877929688</v>
+      </c>
+      <c r="C935" t="n">
+        <v>335</v>
+      </c>
+      <c r="D935" t="n">
+        <v>308</v>
+      </c>
+      <c r="E935" t="n">
+        <v>314.2999877929688</v>
+      </c>
+      <c r="F935" t="n">
+        <v>280376</v>
+      </c>
+      <c r="G935" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H935" t="n">
+        <v>3</v>
+      </c>
+      <c r="I935" t="n">
+        <v>17</v>
+      </c>
+      <c r="J935" t="n">
+        <v>0</v>
+      </c>
+      <c r="K935" t="n">
+        <v>0</v>
+      </c>
+      <c r="L935" t="n">
+        <v>0</v>
+      </c>
+      <c r="M935" t="n">
+        <v>12</v>
+      </c>
+      <c r="N935" t="inlineStr"/>
+      <c r="O935" t="inlineStr"/>
+      <c r="P935" t="inlineStr"/>
+      <c r="Q935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B936" t="n">
+        <v>317.7999877929688</v>
+      </c>
+      <c r="C936" t="n">
+        <v>322.8999938964844</v>
+      </c>
+      <c r="D936" t="n">
+        <v>310</v>
+      </c>
+      <c r="E936" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="F936" t="n">
+        <v>237684</v>
+      </c>
+      <c r="G936" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H936" t="n">
+        <v>3</v>
+      </c>
+      <c r="I936" t="n">
+        <v>18</v>
+      </c>
+      <c r="J936" t="n">
+        <v>0</v>
+      </c>
+      <c r="K936" t="n">
+        <v>0</v>
+      </c>
+      <c r="L936" t="n">
+        <v>0</v>
+      </c>
+      <c r="M936" t="n">
+        <v>12</v>
+      </c>
+      <c r="N936" t="inlineStr"/>
+      <c r="O936" t="inlineStr"/>
+      <c r="P936" t="inlineStr"/>
+      <c r="Q936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B937" t="n">
+        <v>312.2999877929688</v>
+      </c>
+      <c r="C937" t="n">
+        <v>342</v>
+      </c>
+      <c r="D937" t="n">
+        <v>312.2999877929688</v>
+      </c>
+      <c r="E937" t="n">
+        <v>339.2999877929688</v>
+      </c>
+      <c r="F937" t="n">
+        <v>176846</v>
+      </c>
+      <c r="G937" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H937" t="n">
+        <v>3</v>
+      </c>
+      <c r="I937" t="n">
+        <v>19</v>
+      </c>
+      <c r="J937" t="n">
+        <v>0</v>
+      </c>
+      <c r="K937" t="n">
+        <v>0</v>
+      </c>
+      <c r="L937" t="n">
+        <v>0</v>
+      </c>
+      <c r="M937" t="n">
+        <v>12</v>
+      </c>
+      <c r="N937" t="inlineStr"/>
+      <c r="O937" t="inlineStr"/>
+      <c r="P937" t="inlineStr"/>
+      <c r="Q937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B938" t="n">
+        <v>345.7000122070312</v>
+      </c>
+      <c r="C938" t="n">
+        <v>345.7000122070312</v>
+      </c>
+      <c r="D938" t="n">
+        <v>320</v>
+      </c>
+      <c r="E938" t="n">
+        <v>335.3999938964844</v>
+      </c>
+      <c r="F938" t="n">
+        <v>127442</v>
+      </c>
+      <c r="G938" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H938" t="n">
+        <v>3</v>
+      </c>
+      <c r="I938" t="n">
+        <v>20</v>
+      </c>
+      <c r="J938" t="n">
+        <v>0</v>
+      </c>
+      <c r="K938" t="n">
+        <v>0</v>
+      </c>
+      <c r="L938" t="n">
+        <v>0</v>
+      </c>
+      <c r="M938" t="n">
+        <v>12</v>
+      </c>
+      <c r="N938" t="inlineStr"/>
+      <c r="O938" t="inlineStr"/>
+      <c r="P938" t="inlineStr"/>
+      <c r="Q938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B939" t="n">
+        <v>339.9500122070312</v>
+      </c>
+      <c r="C939" t="n">
+        <v>343</v>
+      </c>
+      <c r="D939" t="n">
+        <v>332</v>
+      </c>
+      <c r="E939" t="n">
+        <v>339.2999877929688</v>
+      </c>
+      <c r="F939" t="n">
+        <v>162596</v>
+      </c>
+      <c r="G939" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H939" t="n">
+        <v>3</v>
+      </c>
+      <c r="I939" t="n">
+        <v>21</v>
+      </c>
+      <c r="J939" t="n">
+        <v>0</v>
+      </c>
+      <c r="K939" t="n">
+        <v>0</v>
+      </c>
+      <c r="L939" t="n">
+        <v>0</v>
+      </c>
+      <c r="M939" t="n">
+        <v>12</v>
+      </c>
+      <c r="N939" t="inlineStr"/>
+      <c r="O939" t="inlineStr"/>
+      <c r="P939" t="inlineStr"/>
+      <c r="Q939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B940" t="n">
+        <v>344.7999877929688</v>
+      </c>
+      <c r="C940" t="n">
+        <v>370</v>
+      </c>
+      <c r="D940" t="n">
+        <v>334</v>
+      </c>
+      <c r="E940" t="n">
+        <v>360.5499877929688</v>
+      </c>
+      <c r="F940" t="n">
+        <v>1547277</v>
+      </c>
+      <c r="G940" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H940" t="n">
+        <v>3</v>
+      </c>
+      <c r="I940" t="n">
+        <v>24</v>
+      </c>
+      <c r="J940" t="n">
+        <v>0</v>
+      </c>
+      <c r="K940" t="n">
+        <v>0</v>
+      </c>
+      <c r="L940" t="n">
+        <v>0</v>
+      </c>
+      <c r="M940" t="n">
+        <v>13</v>
+      </c>
+      <c r="N940" t="inlineStr"/>
+      <c r="O940" t="inlineStr"/>
+      <c r="P940" t="inlineStr"/>
+      <c r="Q940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B941" t="n">
+        <v>410</v>
+      </c>
+      <c r="C941" t="n">
+        <v>432.6499938964844</v>
+      </c>
+      <c r="D941" t="n">
+        <v>392</v>
+      </c>
+      <c r="E941" t="n">
+        <v>411.5499877929688</v>
+      </c>
+      <c r="F941" t="n">
+        <v>1553747</v>
+      </c>
+      <c r="G941" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H941" t="n">
+        <v>3</v>
+      </c>
+      <c r="I941" t="n">
+        <v>25</v>
+      </c>
+      <c r="J941" t="n">
+        <v>0</v>
+      </c>
+      <c r="K941" t="n">
+        <v>0</v>
+      </c>
+      <c r="L941" t="n">
+        <v>0</v>
+      </c>
+      <c r="M941" t="n">
+        <v>13</v>
+      </c>
+      <c r="N941" t="inlineStr"/>
+      <c r="O941" t="inlineStr"/>
+      <c r="P941" t="inlineStr"/>
+      <c r="Q941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B942" t="n">
+        <v>410</v>
+      </c>
+      <c r="C942" t="n">
+        <v>429</v>
+      </c>
+      <c r="D942" t="n">
+        <v>403.1000061035156</v>
+      </c>
+      <c r="E942" t="n">
+        <v>405.9500122070312</v>
+      </c>
+      <c r="F942" t="n">
+        <v>332905</v>
+      </c>
+      <c r="G942" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H942" t="n">
+        <v>3</v>
+      </c>
+      <c r="I942" t="n">
+        <v>26</v>
+      </c>
+      <c r="J942" t="n">
+        <v>0</v>
+      </c>
+      <c r="K942" t="n">
+        <v>0</v>
+      </c>
+      <c r="L942" t="n">
+        <v>0</v>
+      </c>
+      <c r="M942" t="n">
+        <v>13</v>
+      </c>
+      <c r="N942" t="inlineStr"/>
+      <c r="O942" t="inlineStr"/>
+      <c r="P942" t="inlineStr"/>
+      <c r="Q942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B943" t="n">
+        <v>400</v>
+      </c>
+      <c r="C943" t="n">
+        <v>412</v>
+      </c>
+      <c r="D943" t="n">
+        <v>397.1499938964844</v>
+      </c>
+      <c r="E943" t="n">
+        <v>401.6000061035156</v>
+      </c>
+      <c r="F943" t="n">
+        <v>236324</v>
+      </c>
+      <c r="G943" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H943" t="n">
+        <v>3</v>
+      </c>
+      <c r="I943" t="n">
+        <v>27</v>
+      </c>
+      <c r="J943" t="n">
+        <v>0</v>
+      </c>
+      <c r="K943" t="n">
+        <v>0</v>
+      </c>
+      <c r="L943" t="n">
+        <v>0</v>
+      </c>
+      <c r="M943" t="n">
+        <v>13</v>
+      </c>
+      <c r="N943" t="inlineStr"/>
+      <c r="O943" t="inlineStr"/>
+      <c r="P943" t="inlineStr"/>
+      <c r="Q943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B944" t="n">
+        <v>402</v>
+      </c>
+      <c r="C944" t="n">
+        <v>409</v>
+      </c>
+      <c r="D944" t="n">
+        <v>402</v>
+      </c>
+      <c r="E944" t="n">
+        <v>407.0499877929688</v>
+      </c>
+      <c r="F944" t="n">
+        <v>129534</v>
+      </c>
+      <c r="G944" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H944" t="n">
+        <v>3</v>
+      </c>
+      <c r="I944" t="n">
+        <v>28</v>
+      </c>
+      <c r="J944" t="n">
+        <v>0</v>
+      </c>
+      <c r="K944" t="n">
+        <v>0</v>
+      </c>
+      <c r="L944" t="n">
+        <v>0</v>
+      </c>
+      <c r="M944" t="n">
+        <v>13</v>
+      </c>
+      <c r="N944" t="inlineStr"/>
+      <c r="O944" t="inlineStr"/>
+      <c r="P944" t="inlineStr"/>
+      <c r="Q944" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/SGFIN.BO.xlsx
+++ b/stock_historical_data/1d/SGFIN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q944"/>
+  <dimension ref="A1:Q948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43149,6 +43149,186 @@
       <c r="P944" t="inlineStr"/>
       <c r="Q944" t="inlineStr"/>
     </row>
+    <row r="945">
+      <c r="A945" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B945" t="n">
+        <v>413</v>
+      </c>
+      <c r="C945" t="n">
+        <v>424.8999938964844</v>
+      </c>
+      <c r="D945" t="n">
+        <v>402.1000061035156</v>
+      </c>
+      <c r="E945" t="n">
+        <v>415.3999938964844</v>
+      </c>
+      <c r="F945" t="n">
+        <v>217782</v>
+      </c>
+      <c r="G945" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H945" t="n">
+        <v>4</v>
+      </c>
+      <c r="I945" t="n">
+        <v>1</v>
+      </c>
+      <c r="J945" t="n">
+        <v>0</v>
+      </c>
+      <c r="K945" t="n">
+        <v>0</v>
+      </c>
+      <c r="L945" t="n">
+        <v>0</v>
+      </c>
+      <c r="M945" t="n">
+        <v>14</v>
+      </c>
+      <c r="N945" t="inlineStr"/>
+      <c r="O945" t="inlineStr"/>
+      <c r="P945" t="inlineStr"/>
+      <c r="Q945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B946" t="n">
+        <v>421.3999938964844</v>
+      </c>
+      <c r="C946" t="n">
+        <v>424</v>
+      </c>
+      <c r="D946" t="n">
+        <v>408.3500061035156</v>
+      </c>
+      <c r="E946" t="n">
+        <v>410.5</v>
+      </c>
+      <c r="F946" t="n">
+        <v>144971</v>
+      </c>
+      <c r="G946" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H946" t="n">
+        <v>4</v>
+      </c>
+      <c r="I946" t="n">
+        <v>2</v>
+      </c>
+      <c r="J946" t="n">
+        <v>0</v>
+      </c>
+      <c r="K946" t="n">
+        <v>0</v>
+      </c>
+      <c r="L946" t="n">
+        <v>0</v>
+      </c>
+      <c r="M946" t="n">
+        <v>14</v>
+      </c>
+      <c r="N946" t="inlineStr"/>
+      <c r="O946" t="inlineStr"/>
+      <c r="P946" t="inlineStr"/>
+      <c r="Q946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B947" t="n">
+        <v>408.9500122070312</v>
+      </c>
+      <c r="C947" t="n">
+        <v>416.8999938964844</v>
+      </c>
+      <c r="D947" t="n">
+        <v>404.3999938964844</v>
+      </c>
+      <c r="E947" t="n">
+        <v>408.9500122070312</v>
+      </c>
+      <c r="F947" t="n">
+        <v>145139</v>
+      </c>
+      <c r="G947" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H947" t="n">
+        <v>4</v>
+      </c>
+      <c r="I947" t="n">
+        <v>3</v>
+      </c>
+      <c r="J947" t="n">
+        <v>0</v>
+      </c>
+      <c r="K947" t="n">
+        <v>0</v>
+      </c>
+      <c r="L947" t="n">
+        <v>0</v>
+      </c>
+      <c r="M947" t="n">
+        <v>14</v>
+      </c>
+      <c r="N947" t="inlineStr"/>
+      <c r="O947" t="inlineStr"/>
+      <c r="P947" t="inlineStr"/>
+      <c r="Q947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B948" t="n">
+        <v>406</v>
+      </c>
+      <c r="C948" t="n">
+        <v>424.8999938964844</v>
+      </c>
+      <c r="D948" t="n">
+        <v>388</v>
+      </c>
+      <c r="E948" t="n">
+        <v>416.7999877929688</v>
+      </c>
+      <c r="F948" t="n">
+        <v>199572</v>
+      </c>
+      <c r="G948" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H948" t="n">
+        <v>4</v>
+      </c>
+      <c r="I948" t="n">
+        <v>4</v>
+      </c>
+      <c r="J948" t="n">
+        <v>0</v>
+      </c>
+      <c r="K948" t="n">
+        <v>0</v>
+      </c>
+      <c r="L948" t="n">
+        <v>0</v>
+      </c>
+      <c r="M948" t="n">
+        <v>14</v>
+      </c>
+      <c r="N948" t="inlineStr"/>
+      <c r="O948" t="inlineStr"/>
+      <c r="P948" t="inlineStr"/>
+      <c r="Q948" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/SGFIN.BO.xlsx
+++ b/stock_historical_data/1d/SGFIN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q948"/>
+  <dimension ref="A1:Q952"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43329,6 +43329,186 @@
       <c r="P948" t="inlineStr"/>
       <c r="Q948" t="inlineStr"/>
     </row>
+    <row r="949">
+      <c r="A949" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B949" t="n">
+        <v>360.2000122070312</v>
+      </c>
+      <c r="C949" t="n">
+        <v>407.7999877929688</v>
+      </c>
+      <c r="D949" t="n">
+        <v>360.2000122070312</v>
+      </c>
+      <c r="E949" t="n">
+        <v>401.8999938964844</v>
+      </c>
+      <c r="F949" t="n">
+        <v>199794</v>
+      </c>
+      <c r="G949" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H949" t="n">
+        <v>4</v>
+      </c>
+      <c r="I949" t="n">
+        <v>7</v>
+      </c>
+      <c r="J949" t="n">
+        <v>0</v>
+      </c>
+      <c r="K949" t="n">
+        <v>0</v>
+      </c>
+      <c r="L949" t="n">
+        <v>0</v>
+      </c>
+      <c r="M949" t="n">
+        <v>15</v>
+      </c>
+      <c r="N949" t="inlineStr"/>
+      <c r="O949" t="inlineStr"/>
+      <c r="P949" t="inlineStr"/>
+      <c r="Q949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B950" t="n">
+        <v>421</v>
+      </c>
+      <c r="C950" t="n">
+        <v>421</v>
+      </c>
+      <c r="D950" t="n">
+        <v>404.1499938964844</v>
+      </c>
+      <c r="E950" t="n">
+        <v>408.7999877929688</v>
+      </c>
+      <c r="F950" t="n">
+        <v>128357</v>
+      </c>
+      <c r="G950" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H950" t="n">
+        <v>4</v>
+      </c>
+      <c r="I950" t="n">
+        <v>8</v>
+      </c>
+      <c r="J950" t="n">
+        <v>0</v>
+      </c>
+      <c r="K950" t="n">
+        <v>0</v>
+      </c>
+      <c r="L950" t="n">
+        <v>0</v>
+      </c>
+      <c r="M950" t="n">
+        <v>15</v>
+      </c>
+      <c r="N950" t="inlineStr"/>
+      <c r="O950" t="inlineStr"/>
+      <c r="P950" t="inlineStr"/>
+      <c r="Q950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B951" t="n">
+        <v>408.7000122070312</v>
+      </c>
+      <c r="C951" t="n">
+        <v>421</v>
+      </c>
+      <c r="D951" t="n">
+        <v>401.25</v>
+      </c>
+      <c r="E951" t="n">
+        <v>403.8999938964844</v>
+      </c>
+      <c r="F951" t="n">
+        <v>72412</v>
+      </c>
+      <c r="G951" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H951" t="n">
+        <v>4</v>
+      </c>
+      <c r="I951" t="n">
+        <v>9</v>
+      </c>
+      <c r="J951" t="n">
+        <v>0</v>
+      </c>
+      <c r="K951" t="n">
+        <v>0</v>
+      </c>
+      <c r="L951" t="n">
+        <v>0</v>
+      </c>
+      <c r="M951" t="n">
+        <v>15</v>
+      </c>
+      <c r="N951" t="inlineStr"/>
+      <c r="O951" t="inlineStr"/>
+      <c r="P951" t="inlineStr"/>
+      <c r="Q951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B952" t="n">
+        <v>414</v>
+      </c>
+      <c r="C952" t="n">
+        <v>415</v>
+      </c>
+      <c r="D952" t="n">
+        <v>395</v>
+      </c>
+      <c r="E952" t="n">
+        <v>399.1000061035156</v>
+      </c>
+      <c r="F952" t="n">
+        <v>146377</v>
+      </c>
+      <c r="G952" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H952" t="n">
+        <v>4</v>
+      </c>
+      <c r="I952" t="n">
+        <v>11</v>
+      </c>
+      <c r="J952" t="n">
+        <v>0</v>
+      </c>
+      <c r="K952" t="n">
+        <v>0</v>
+      </c>
+      <c r="L952" t="n">
+        <v>0</v>
+      </c>
+      <c r="M952" t="n">
+        <v>15</v>
+      </c>
+      <c r="N952" t="inlineStr"/>
+      <c r="O952" t="inlineStr"/>
+      <c r="P952" t="inlineStr"/>
+      <c r="Q952" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/SGFIN.BO.xlsx
+++ b/stock_historical_data/1d/SGFIN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q952"/>
+  <dimension ref="A1:Q960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43509,6 +43509,366 @@
       <c r="P952" t="inlineStr"/>
       <c r="Q952" t="inlineStr"/>
     </row>
+    <row r="953">
+      <c r="A953" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B953" t="n">
+        <v>406.8999938964844</v>
+      </c>
+      <c r="C953" t="n">
+        <v>413</v>
+      </c>
+      <c r="D953" t="n">
+        <v>405.3500061035156</v>
+      </c>
+      <c r="E953" t="n">
+        <v>410.3999938964844</v>
+      </c>
+      <c r="F953" t="n">
+        <v>115160</v>
+      </c>
+      <c r="G953" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H953" t="n">
+        <v>4</v>
+      </c>
+      <c r="I953" t="n">
+        <v>15</v>
+      </c>
+      <c r="J953" t="n">
+        <v>0</v>
+      </c>
+      <c r="K953" t="n">
+        <v>0</v>
+      </c>
+      <c r="L953" t="n">
+        <v>0</v>
+      </c>
+      <c r="M953" t="n">
+        <v>16</v>
+      </c>
+      <c r="N953" t="inlineStr"/>
+      <c r="O953" t="inlineStr"/>
+      <c r="P953" t="inlineStr"/>
+      <c r="Q953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B954" t="n">
+        <v>410.0499877929688</v>
+      </c>
+      <c r="C954" t="n">
+        <v>412.8999938964844</v>
+      </c>
+      <c r="D954" t="n">
+        <v>399</v>
+      </c>
+      <c r="E954" t="n">
+        <v>404.5</v>
+      </c>
+      <c r="F954" t="n">
+        <v>114140</v>
+      </c>
+      <c r="G954" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H954" t="n">
+        <v>4</v>
+      </c>
+      <c r="I954" t="n">
+        <v>16</v>
+      </c>
+      <c r="J954" t="n">
+        <v>0</v>
+      </c>
+      <c r="K954" t="n">
+        <v>0</v>
+      </c>
+      <c r="L954" t="n">
+        <v>0</v>
+      </c>
+      <c r="M954" t="n">
+        <v>16</v>
+      </c>
+      <c r="N954" t="inlineStr"/>
+      <c r="O954" t="inlineStr"/>
+      <c r="P954" t="inlineStr"/>
+      <c r="Q954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B955" t="n">
+        <v>405</v>
+      </c>
+      <c r="C955" t="n">
+        <v>411</v>
+      </c>
+      <c r="D955" t="n">
+        <v>400.6499938964844</v>
+      </c>
+      <c r="E955" t="n">
+        <v>408.2999877929688</v>
+      </c>
+      <c r="F955" t="n">
+        <v>130713</v>
+      </c>
+      <c r="G955" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H955" t="n">
+        <v>4</v>
+      </c>
+      <c r="I955" t="n">
+        <v>17</v>
+      </c>
+      <c r="J955" t="n">
+        <v>0</v>
+      </c>
+      <c r="K955" t="n">
+        <v>0</v>
+      </c>
+      <c r="L955" t="n">
+        <v>0</v>
+      </c>
+      <c r="M955" t="n">
+        <v>16</v>
+      </c>
+      <c r="N955" t="inlineStr"/>
+      <c r="O955" t="inlineStr"/>
+      <c r="P955" t="inlineStr"/>
+      <c r="Q955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B956" t="n">
+        <v>416.5</v>
+      </c>
+      <c r="C956" t="n">
+        <v>428.7999877929688</v>
+      </c>
+      <c r="D956" t="n">
+        <v>412</v>
+      </c>
+      <c r="E956" t="n">
+        <v>424.7000122070312</v>
+      </c>
+      <c r="F956" t="n">
+        <v>264516</v>
+      </c>
+      <c r="G956" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H956" t="n">
+        <v>4</v>
+      </c>
+      <c r="I956" t="n">
+        <v>21</v>
+      </c>
+      <c r="J956" t="n">
+        <v>0</v>
+      </c>
+      <c r="K956" t="n">
+        <v>0</v>
+      </c>
+      <c r="L956" t="n">
+        <v>0</v>
+      </c>
+      <c r="M956" t="n">
+        <v>17</v>
+      </c>
+      <c r="N956" t="inlineStr"/>
+      <c r="O956" t="inlineStr"/>
+      <c r="P956" t="inlineStr"/>
+      <c r="Q956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B957" t="n">
+        <v>426.4500122070312</v>
+      </c>
+      <c r="C957" t="n">
+        <v>430</v>
+      </c>
+      <c r="D957" t="n">
+        <v>420</v>
+      </c>
+      <c r="E957" t="n">
+        <v>422.8500061035156</v>
+      </c>
+      <c r="F957" t="n">
+        <v>135005</v>
+      </c>
+      <c r="G957" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H957" t="n">
+        <v>4</v>
+      </c>
+      <c r="I957" t="n">
+        <v>22</v>
+      </c>
+      <c r="J957" t="n">
+        <v>0</v>
+      </c>
+      <c r="K957" t="n">
+        <v>0</v>
+      </c>
+      <c r="L957" t="n">
+        <v>0</v>
+      </c>
+      <c r="M957" t="n">
+        <v>17</v>
+      </c>
+      <c r="N957" t="inlineStr"/>
+      <c r="O957" t="inlineStr"/>
+      <c r="P957" t="inlineStr"/>
+      <c r="Q957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B958" t="n">
+        <v>423</v>
+      </c>
+      <c r="C958" t="n">
+        <v>426.9500122070312</v>
+      </c>
+      <c r="D958" t="n">
+        <v>407.3500061035156</v>
+      </c>
+      <c r="E958" t="n">
+        <v>423.0499877929688</v>
+      </c>
+      <c r="F958" t="n">
+        <v>131097</v>
+      </c>
+      <c r="G958" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H958" t="n">
+        <v>4</v>
+      </c>
+      <c r="I958" t="n">
+        <v>23</v>
+      </c>
+      <c r="J958" t="n">
+        <v>0</v>
+      </c>
+      <c r="K958" t="n">
+        <v>0</v>
+      </c>
+      <c r="L958" t="n">
+        <v>0</v>
+      </c>
+      <c r="M958" t="n">
+        <v>17</v>
+      </c>
+      <c r="N958" t="inlineStr"/>
+      <c r="O958" t="inlineStr"/>
+      <c r="P958" t="inlineStr"/>
+      <c r="Q958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B959" t="n">
+        <v>423.0499877929688</v>
+      </c>
+      <c r="C959" t="n">
+        <v>429</v>
+      </c>
+      <c r="D959" t="n">
+        <v>411.25</v>
+      </c>
+      <c r="E959" t="n">
+        <v>415.7999877929688</v>
+      </c>
+      <c r="F959" t="n">
+        <v>122888</v>
+      </c>
+      <c r="G959" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H959" t="n">
+        <v>4</v>
+      </c>
+      <c r="I959" t="n">
+        <v>24</v>
+      </c>
+      <c r="J959" t="n">
+        <v>0</v>
+      </c>
+      <c r="K959" t="n">
+        <v>0</v>
+      </c>
+      <c r="L959" t="n">
+        <v>0</v>
+      </c>
+      <c r="M959" t="n">
+        <v>17</v>
+      </c>
+      <c r="N959" t="inlineStr"/>
+      <c r="O959" t="inlineStr"/>
+      <c r="P959" t="inlineStr"/>
+      <c r="Q959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B960" t="n">
+        <v>415.7999877929688</v>
+      </c>
+      <c r="C960" t="n">
+        <v>418.9500122070312</v>
+      </c>
+      <c r="D960" t="n">
+        <v>396</v>
+      </c>
+      <c r="E960" t="n">
+        <v>410.9500122070312</v>
+      </c>
+      <c r="F960" t="n">
+        <v>108330</v>
+      </c>
+      <c r="G960" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H960" t="n">
+        <v>4</v>
+      </c>
+      <c r="I960" t="n">
+        <v>25</v>
+      </c>
+      <c r="J960" t="n">
+        <v>0</v>
+      </c>
+      <c r="K960" t="n">
+        <v>0</v>
+      </c>
+      <c r="L960" t="n">
+        <v>0</v>
+      </c>
+      <c r="M960" t="n">
+        <v>17</v>
+      </c>
+      <c r="N960" t="inlineStr"/>
+      <c r="O960" t="inlineStr"/>
+      <c r="P960" t="inlineStr"/>
+      <c r="Q960" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/SGFIN.BO.xlsx
+++ b/stock_historical_data/1d/SGFIN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q960"/>
+  <dimension ref="A1:Q969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43869,6 +43869,411 @@
       <c r="P960" t="inlineStr"/>
       <c r="Q960" t="inlineStr"/>
     </row>
+    <row r="961">
+      <c r="A961" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B961" t="n">
+        <v>414</v>
+      </c>
+      <c r="C961" t="n">
+        <v>416.9500122070312</v>
+      </c>
+      <c r="D961" t="n">
+        <v>392.2000122070312</v>
+      </c>
+      <c r="E961" t="n">
+        <v>400.6000061035156</v>
+      </c>
+      <c r="F961" t="n">
+        <v>132735</v>
+      </c>
+      <c r="G961" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H961" t="n">
+        <v>4</v>
+      </c>
+      <c r="I961" t="n">
+        <v>28</v>
+      </c>
+      <c r="J961" t="n">
+        <v>0</v>
+      </c>
+      <c r="K961" t="n">
+        <v>0</v>
+      </c>
+      <c r="L961" t="n">
+        <v>0</v>
+      </c>
+      <c r="M961" t="n">
+        <v>18</v>
+      </c>
+      <c r="N961" t="inlineStr"/>
+      <c r="O961" t="inlineStr"/>
+      <c r="P961" t="inlineStr"/>
+      <c r="Q961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B962" t="n">
+        <v>402.8999938964844</v>
+      </c>
+      <c r="C962" t="n">
+        <v>408</v>
+      </c>
+      <c r="D962" t="n">
+        <v>398</v>
+      </c>
+      <c r="E962" t="n">
+        <v>401</v>
+      </c>
+      <c r="F962" t="n">
+        <v>83233</v>
+      </c>
+      <c r="G962" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H962" t="n">
+        <v>4</v>
+      </c>
+      <c r="I962" t="n">
+        <v>29</v>
+      </c>
+      <c r="J962" t="n">
+        <v>0</v>
+      </c>
+      <c r="K962" t="n">
+        <v>0</v>
+      </c>
+      <c r="L962" t="n">
+        <v>0</v>
+      </c>
+      <c r="M962" t="n">
+        <v>18</v>
+      </c>
+      <c r="N962" t="inlineStr"/>
+      <c r="O962" t="inlineStr"/>
+      <c r="P962" t="inlineStr"/>
+      <c r="Q962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B963" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="C963" t="n">
+        <v>399.8500061035156</v>
+      </c>
+      <c r="D963" t="n">
+        <v>390.0499877929688</v>
+      </c>
+      <c r="E963" t="n">
+        <v>396.25</v>
+      </c>
+      <c r="F963" t="n">
+        <v>71721</v>
+      </c>
+      <c r="G963" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H963" t="n">
+        <v>4</v>
+      </c>
+      <c r="I963" t="n">
+        <v>30</v>
+      </c>
+      <c r="J963" t="n">
+        <v>0</v>
+      </c>
+      <c r="K963" t="n">
+        <v>0</v>
+      </c>
+      <c r="L963" t="n">
+        <v>0</v>
+      </c>
+      <c r="M963" t="n">
+        <v>18</v>
+      </c>
+      <c r="N963" t="inlineStr"/>
+      <c r="O963" t="inlineStr"/>
+      <c r="P963" t="inlineStr"/>
+      <c r="Q963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B964" t="n">
+        <v>403.8500061035156</v>
+      </c>
+      <c r="C964" t="n">
+        <v>404.8999938964844</v>
+      </c>
+      <c r="D964" t="n">
+        <v>391.6000061035156</v>
+      </c>
+      <c r="E964" t="n">
+        <v>397.4500122070312</v>
+      </c>
+      <c r="F964" t="n">
+        <v>71348</v>
+      </c>
+      <c r="G964" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H964" t="n">
+        <v>5</v>
+      </c>
+      <c r="I964" t="n">
+        <v>2</v>
+      </c>
+      <c r="J964" t="n">
+        <v>0</v>
+      </c>
+      <c r="K964" t="n">
+        <v>0</v>
+      </c>
+      <c r="L964" t="n">
+        <v>0</v>
+      </c>
+      <c r="M964" t="n">
+        <v>18</v>
+      </c>
+      <c r="N964" t="inlineStr"/>
+      <c r="O964" t="inlineStr"/>
+      <c r="P964" t="inlineStr"/>
+      <c r="Q964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B965" t="n">
+        <v>396.1000061035156</v>
+      </c>
+      <c r="C965" t="n">
+        <v>402.0499877929688</v>
+      </c>
+      <c r="D965" t="n">
+        <v>394.3999938964844</v>
+      </c>
+      <c r="E965" t="n">
+        <v>395.6000061035156</v>
+      </c>
+      <c r="F965" t="n">
+        <v>57828</v>
+      </c>
+      <c r="G965" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H965" t="n">
+        <v>5</v>
+      </c>
+      <c r="I965" t="n">
+        <v>5</v>
+      </c>
+      <c r="J965" t="n">
+        <v>0</v>
+      </c>
+      <c r="K965" t="n">
+        <v>0</v>
+      </c>
+      <c r="L965" t="n">
+        <v>0</v>
+      </c>
+      <c r="M965" t="n">
+        <v>19</v>
+      </c>
+      <c r="N965" t="inlineStr"/>
+      <c r="O965" t="inlineStr"/>
+      <c r="P965" t="inlineStr"/>
+      <c r="Q965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B966" t="n">
+        <v>396</v>
+      </c>
+      <c r="C966" t="n">
+        <v>398.25</v>
+      </c>
+      <c r="D966" t="n">
+        <v>383</v>
+      </c>
+      <c r="E966" t="n">
+        <v>385.8500061035156</v>
+      </c>
+      <c r="F966" t="n">
+        <v>60860</v>
+      </c>
+      <c r="G966" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H966" t="n">
+        <v>5</v>
+      </c>
+      <c r="I966" t="n">
+        <v>6</v>
+      </c>
+      <c r="J966" t="n">
+        <v>0</v>
+      </c>
+      <c r="K966" t="n">
+        <v>0</v>
+      </c>
+      <c r="L966" t="n">
+        <v>0</v>
+      </c>
+      <c r="M966" t="n">
+        <v>19</v>
+      </c>
+      <c r="N966" t="inlineStr"/>
+      <c r="O966" t="inlineStr"/>
+      <c r="P966" t="inlineStr"/>
+      <c r="Q966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B967" t="n">
+        <v>379</v>
+      </c>
+      <c r="C967" t="n">
+        <v>388.75</v>
+      </c>
+      <c r="D967" t="n">
+        <v>379</v>
+      </c>
+      <c r="E967" t="n">
+        <v>384</v>
+      </c>
+      <c r="F967" t="n">
+        <v>76867</v>
+      </c>
+      <c r="G967" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H967" t="n">
+        <v>5</v>
+      </c>
+      <c r="I967" t="n">
+        <v>7</v>
+      </c>
+      <c r="J967" t="n">
+        <v>0</v>
+      </c>
+      <c r="K967" t="n">
+        <v>0</v>
+      </c>
+      <c r="L967" t="n">
+        <v>0</v>
+      </c>
+      <c r="M967" t="n">
+        <v>19</v>
+      </c>
+      <c r="N967" t="inlineStr"/>
+      <c r="O967" t="inlineStr"/>
+      <c r="P967" t="inlineStr"/>
+      <c r="Q967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B968" t="n">
+        <v>388.7000122070312</v>
+      </c>
+      <c r="C968" t="n">
+        <v>417</v>
+      </c>
+      <c r="D968" t="n">
+        <v>385.25</v>
+      </c>
+      <c r="E968" t="n">
+        <v>392.9500122070312</v>
+      </c>
+      <c r="F968" t="n">
+        <v>193933</v>
+      </c>
+      <c r="G968" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H968" t="n">
+        <v>5</v>
+      </c>
+      <c r="I968" t="n">
+        <v>8</v>
+      </c>
+      <c r="J968" t="n">
+        <v>0</v>
+      </c>
+      <c r="K968" t="n">
+        <v>0</v>
+      </c>
+      <c r="L968" t="n">
+        <v>0</v>
+      </c>
+      <c r="M968" t="n">
+        <v>19</v>
+      </c>
+      <c r="N968" t="inlineStr"/>
+      <c r="O968" t="inlineStr"/>
+      <c r="P968" t="inlineStr"/>
+      <c r="Q968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B969" t="n">
+        <v>378</v>
+      </c>
+      <c r="C969" t="n">
+        <v>391.7000122070312</v>
+      </c>
+      <c r="D969" t="n">
+        <v>375.6499938964844</v>
+      </c>
+      <c r="E969" t="n">
+        <v>385.8500061035156</v>
+      </c>
+      <c r="F969" t="n">
+        <v>126859</v>
+      </c>
+      <c r="G969" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H969" t="n">
+        <v>5</v>
+      </c>
+      <c r="I969" t="n">
+        <v>9</v>
+      </c>
+      <c r="J969" t="n">
+        <v>0</v>
+      </c>
+      <c r="K969" t="n">
+        <v>0</v>
+      </c>
+      <c r="L969" t="n">
+        <v>0</v>
+      </c>
+      <c r="M969" t="n">
+        <v>19</v>
+      </c>
+      <c r="N969" t="inlineStr"/>
+      <c r="O969" t="inlineStr"/>
+      <c r="P969" t="inlineStr"/>
+      <c r="Q969" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/SGFIN.BO.xlsx
+++ b/stock_historical_data/1d/SGFIN.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q969"/>
+  <dimension ref="A1:Q979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44274,6 +44274,456 @@
       <c r="P969" t="inlineStr"/>
       <c r="Q969" t="inlineStr"/>
     </row>
+    <row r="970">
+      <c r="A970" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B970" t="n">
+        <v>405</v>
+      </c>
+      <c r="C970" t="n">
+        <v>410</v>
+      </c>
+      <c r="D970" t="n">
+        <v>387</v>
+      </c>
+      <c r="E970" t="n">
+        <v>392.3999938964844</v>
+      </c>
+      <c r="F970" t="n">
+        <v>174138</v>
+      </c>
+      <c r="G970" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H970" t="n">
+        <v>5</v>
+      </c>
+      <c r="I970" t="n">
+        <v>12</v>
+      </c>
+      <c r="J970" t="n">
+        <v>0</v>
+      </c>
+      <c r="K970" t="n">
+        <v>0</v>
+      </c>
+      <c r="L970" t="n">
+        <v>0</v>
+      </c>
+      <c r="M970" t="n">
+        <v>20</v>
+      </c>
+      <c r="N970" t="inlineStr"/>
+      <c r="O970" t="inlineStr"/>
+      <c r="P970" t="inlineStr"/>
+      <c r="Q970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B971" t="n">
+        <v>397.4500122070312</v>
+      </c>
+      <c r="C971" t="n">
+        <v>399.3999938964844</v>
+      </c>
+      <c r="D971" t="n">
+        <v>383</v>
+      </c>
+      <c r="E971" t="n">
+        <v>395.7999877929688</v>
+      </c>
+      <c r="F971" t="n">
+        <v>121123</v>
+      </c>
+      <c r="G971" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H971" t="n">
+        <v>5</v>
+      </c>
+      <c r="I971" t="n">
+        <v>13</v>
+      </c>
+      <c r="J971" t="n">
+        <v>0</v>
+      </c>
+      <c r="K971" t="n">
+        <v>0</v>
+      </c>
+      <c r="L971" t="n">
+        <v>0</v>
+      </c>
+      <c r="M971" t="n">
+        <v>20</v>
+      </c>
+      <c r="N971" t="inlineStr"/>
+      <c r="O971" t="inlineStr"/>
+      <c r="P971" t="inlineStr"/>
+      <c r="Q971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B972" t="n">
+        <v>397</v>
+      </c>
+      <c r="C972" t="n">
+        <v>399.7999877929688</v>
+      </c>
+      <c r="D972" t="n">
+        <v>389</v>
+      </c>
+      <c r="E972" t="n">
+        <v>389.6499938964844</v>
+      </c>
+      <c r="F972" t="n">
+        <v>118796</v>
+      </c>
+      <c r="G972" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H972" t="n">
+        <v>5</v>
+      </c>
+      <c r="I972" t="n">
+        <v>14</v>
+      </c>
+      <c r="J972" t="n">
+        <v>0</v>
+      </c>
+      <c r="K972" t="n">
+        <v>0</v>
+      </c>
+      <c r="L972" t="n">
+        <v>0</v>
+      </c>
+      <c r="M972" t="n">
+        <v>20</v>
+      </c>
+      <c r="N972" t="inlineStr"/>
+      <c r="O972" t="inlineStr"/>
+      <c r="P972" t="inlineStr"/>
+      <c r="Q972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B973" t="n">
+        <v>393</v>
+      </c>
+      <c r="C973" t="n">
+        <v>396.8999938964844</v>
+      </c>
+      <c r="D973" t="n">
+        <v>386.6499938964844</v>
+      </c>
+      <c r="E973" t="n">
+        <v>388.7000122070312</v>
+      </c>
+      <c r="F973" t="n">
+        <v>142149</v>
+      </c>
+      <c r="G973" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H973" t="n">
+        <v>5</v>
+      </c>
+      <c r="I973" t="n">
+        <v>15</v>
+      </c>
+      <c r="J973" t="n">
+        <v>0</v>
+      </c>
+      <c r="K973" t="n">
+        <v>0</v>
+      </c>
+      <c r="L973" t="n">
+        <v>0</v>
+      </c>
+      <c r="M973" t="n">
+        <v>20</v>
+      </c>
+      <c r="N973" t="inlineStr"/>
+      <c r="O973" t="inlineStr"/>
+      <c r="P973" t="inlineStr"/>
+      <c r="Q973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B974" t="n">
+        <v>392.75</v>
+      </c>
+      <c r="C974" t="n">
+        <v>396.8999938964844</v>
+      </c>
+      <c r="D974" t="n">
+        <v>382.0499877929688</v>
+      </c>
+      <c r="E974" t="n">
+        <v>396</v>
+      </c>
+      <c r="F974" t="n">
+        <v>243490</v>
+      </c>
+      <c r="G974" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H974" t="n">
+        <v>5</v>
+      </c>
+      <c r="I974" t="n">
+        <v>16</v>
+      </c>
+      <c r="J974" t="n">
+        <v>0</v>
+      </c>
+      <c r="K974" t="n">
+        <v>0</v>
+      </c>
+      <c r="L974" t="n">
+        <v>0</v>
+      </c>
+      <c r="M974" t="n">
+        <v>20</v>
+      </c>
+      <c r="N974" t="inlineStr"/>
+      <c r="O974" t="inlineStr"/>
+      <c r="P974" t="inlineStr"/>
+      <c r="Q974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B975" t="n">
+        <v>398.8999938964844</v>
+      </c>
+      <c r="C975" t="n">
+        <v>398.8999938964844</v>
+      </c>
+      <c r="D975" t="n">
+        <v>389.8500061035156</v>
+      </c>
+      <c r="E975" t="n">
+        <v>391.9500122070312</v>
+      </c>
+      <c r="F975" t="n">
+        <v>103824</v>
+      </c>
+      <c r="G975" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H975" t="n">
+        <v>5</v>
+      </c>
+      <c r="I975" t="n">
+        <v>19</v>
+      </c>
+      <c r="J975" t="n">
+        <v>0</v>
+      </c>
+      <c r="K975" t="n">
+        <v>0</v>
+      </c>
+      <c r="L975" t="n">
+        <v>0</v>
+      </c>
+      <c r="M975" t="n">
+        <v>21</v>
+      </c>
+      <c r="N975" t="inlineStr"/>
+      <c r="O975" t="inlineStr"/>
+      <c r="P975" t="inlineStr"/>
+      <c r="Q975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="2" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B976" t="n">
+        <v>396.4500122070312</v>
+      </c>
+      <c r="C976" t="n">
+        <v>397</v>
+      </c>
+      <c r="D976" t="n">
+        <v>381.9500122070312</v>
+      </c>
+      <c r="E976" t="n">
+        <v>384.25</v>
+      </c>
+      <c r="F976" t="n">
+        <v>156934</v>
+      </c>
+      <c r="G976" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H976" t="n">
+        <v>5</v>
+      </c>
+      <c r="I976" t="n">
+        <v>20</v>
+      </c>
+      <c r="J976" t="n">
+        <v>0</v>
+      </c>
+      <c r="K976" t="n">
+        <v>0</v>
+      </c>
+      <c r="L976" t="n">
+        <v>0</v>
+      </c>
+      <c r="M976" t="n">
+        <v>21</v>
+      </c>
+      <c r="N976" t="inlineStr"/>
+      <c r="O976" t="inlineStr"/>
+      <c r="P976" t="inlineStr"/>
+      <c r="Q976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="2" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B977" t="n">
+        <v>383</v>
+      </c>
+      <c r="C977" t="n">
+        <v>388</v>
+      </c>
+      <c r="D977" t="n">
+        <v>379.1499938964844</v>
+      </c>
+      <c r="E977" t="n">
+        <v>380.25</v>
+      </c>
+      <c r="F977" t="n">
+        <v>75702</v>
+      </c>
+      <c r="G977" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H977" t="n">
+        <v>5</v>
+      </c>
+      <c r="I977" t="n">
+        <v>21</v>
+      </c>
+      <c r="J977" t="n">
+        <v>0</v>
+      </c>
+      <c r="K977" t="n">
+        <v>0</v>
+      </c>
+      <c r="L977" t="n">
+        <v>0</v>
+      </c>
+      <c r="M977" t="n">
+        <v>21</v>
+      </c>
+      <c r="N977" t="inlineStr"/>
+      <c r="O977" t="inlineStr"/>
+      <c r="P977" t="inlineStr"/>
+      <c r="Q977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="2" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B978" t="n">
+        <v>384</v>
+      </c>
+      <c r="C978" t="n">
+        <v>384</v>
+      </c>
+      <c r="D978" t="n">
+        <v>376.25</v>
+      </c>
+      <c r="E978" t="n">
+        <v>380.8999938964844</v>
+      </c>
+      <c r="F978" t="n">
+        <v>197092</v>
+      </c>
+      <c r="G978" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H978" t="n">
+        <v>5</v>
+      </c>
+      <c r="I978" t="n">
+        <v>22</v>
+      </c>
+      <c r="J978" t="n">
+        <v>0</v>
+      </c>
+      <c r="K978" t="n">
+        <v>0</v>
+      </c>
+      <c r="L978" t="n">
+        <v>0</v>
+      </c>
+      <c r="M978" t="n">
+        <v>21</v>
+      </c>
+      <c r="N978" t="inlineStr"/>
+      <c r="O978" t="inlineStr"/>
+      <c r="P978" t="inlineStr"/>
+      <c r="Q978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B979" t="n">
+        <v>384</v>
+      </c>
+      <c r="C979" t="n">
+        <v>388</v>
+      </c>
+      <c r="D979" t="n">
+        <v>379</v>
+      </c>
+      <c r="E979" t="n">
+        <v>384.4500122070312</v>
+      </c>
+      <c r="F979" t="n">
+        <v>92655</v>
+      </c>
+      <c r="G979" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H979" t="n">
+        <v>5</v>
+      </c>
+      <c r="I979" t="n">
+        <v>23</v>
+      </c>
+      <c r="J979" t="n">
+        <v>0</v>
+      </c>
+      <c r="K979" t="n">
+        <v>0</v>
+      </c>
+      <c r="L979" t="n">
+        <v>0</v>
+      </c>
+      <c r="M979" t="n">
+        <v>21</v>
+      </c>
+      <c r="N979" t="inlineStr"/>
+      <c r="O979" t="inlineStr"/>
+      <c r="P979" t="inlineStr"/>
+      <c r="Q979" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
